--- a/medicine/Sexualité et sexologie/Shinju/Shinju.xlsx
+++ b/medicine/Sexualité et sexologie/Shinju/Shinju.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le shinju est une forme de bondage appliqué à la poitrine d'une femme. Cette pratique proviendrait du Japon ; en Occident, le vêtement qui sert à une telle pratique est appelé « harnais bikini »[1]. Aucun bondage de type shinju n'a été retrouvé dans une quelconque édition de kinbaku. Le mot a été appliqué par des sites Internet commerciaux, au milieu des années 1990 et, par erreur, au bondage japonais pratiqué à l'aide de cordes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le shinju est une forme de bondage appliqué à la poitrine d'une femme. Cette pratique proviendrait du Japon ; en Occident, le vêtement qui sert à une telle pratique est appelé « harnais bikini ». Aucun bondage de type shinju n'a été retrouvé dans une quelconque édition de kinbaku. Le mot a été appliqué par des sites Internet commerciaux, au milieu des années 1990 et, par erreur, au bondage japonais pratiqué à l'aide de cordes.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Shinju (真珠) est un mot japonais signifiant « perle ». Par euphémisme, il désigne également les seins. Il est également utilisé pour désigner une sorte de licol, élément vestimentaire féminin japonais.
 </t>
@@ -542,7 +556,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'art de lier les bras et la poitrine est connu dans les traités de kinbaku sous l’appellation de ushiro takatekote[N 1]. Il consiste à lier les bras derrière le dos (後ろ, ushiro[N 2] et 高手小手, takate kote[N 3]) dans la posture d'un boxeur. Cette position, originellement décrite dans les arts martiaux des samourai d'hojōjutsu (捕縄術) ou de nawajutsu (縄術), devenue une forme d'érotisme à la fin du XIXe siècle et au début du XXe siècle, est le point de départ de la plupart des autres techniques de ligotage décrites dans le kinbaku.
 </t>
